--- a/XurtepNominas/bin/Debug/Archivos/maecco1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/maecco1.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
-    <sheet name="Percepciones" sheetId="3" r:id="rId2"/>
-    <sheet name="Deducciones" sheetId="4" r:id="rId3"/>
+    <sheet name="Deducciones" sheetId="4" r:id="rId2"/>
+    <sheet name="Percepciones" sheetId="3" r:id="rId3"/>
     <sheet name="Otros Pagos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>NOMINA</t>
-  </si>
-  <si>
-    <t>CAVD911229CX7</t>
   </si>
   <si>
     <t>5/001</t>
@@ -821,7 +818,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -841,7 +838,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,28 +861,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1196,13 +1192,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1258,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1271,39 +1267,39 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="27"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="26" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="27"/>
+      <c r="S1" s="26"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="26" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="26" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="27"/>
+      <c r="AA1" s="26"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2">
         <v>4</v>
@@ -1348,8 +1344,8 @@
       <c r="Y2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="24" t="s">
-        <v>73</v>
+      <c r="Z2" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
         <v>29</v>
@@ -1357,103 +1353,8 @@
       <c r="AD2">
         <v>4</v>
       </c>
-      <c r="AE2" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>16</v>
-      </c>
-      <c r="Q3">
-        <v>17</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-      <c r="S3">
-        <v>19</v>
-      </c>
-      <c r="T3">
-        <v>20</v>
-      </c>
-      <c r="U3">
-        <v>21</v>
-      </c>
-      <c r="V3">
-        <v>22</v>
-      </c>
-      <c r="W3">
-        <v>23</v>
-      </c>
-      <c r="X3">
-        <v>24</v>
-      </c>
-      <c r="Y3">
-        <v>25</v>
-      </c>
-      <c r="Z3">
-        <v>26</v>
-      </c>
-      <c r="AA3">
-        <v>27</v>
-      </c>
-      <c r="AB3">
-        <v>28</v>
-      </c>
-      <c r="AC3">
-        <v>29</v>
-      </c>
-      <c r="AD3">
-        <v>30</v>
-      </c>
-      <c r="AE3">
-        <v>31</v>
+      <c r="AE2" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1472,15 +1373,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,35 +1521,35 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -1529,43 +1559,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="29"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1575,99 +1605,67 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="16">
-        <v>638.76729120000005</v>
-      </c>
-      <c r="E4" s="16">
-        <v>931.53563280000003</v>
-      </c>
-      <c r="G4" s="16">
-        <v>3151.8122920000001</v>
-      </c>
-      <c r="I4" s="16">
-        <v>756.43495040000005</v>
-      </c>
-      <c r="K4" s="16">
-        <v>2521.4498336000006</v>
-      </c>
-      <c r="M4" s="16">
-        <v>131.83333333333337</v>
-      </c>
-      <c r="N4" s="16">
-        <v>201.5</v>
-      </c>
-      <c r="O4" s="16">
-        <v>110.36111111111111</v>
-      </c>
-      <c r="P4" s="16">
-        <v>100.75</v>
       </c>
     </row>
   </sheetData>
@@ -1685,160 +1683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="16">
-        <v>207.8802</v>
-      </c>
-      <c r="D4" s="16">
-        <v>650.85208355555562</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>804.39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/XurtepNominas/bin/Debug/Archivos/maecco1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/maecco1.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
-    <sheet name="Deducciones" sheetId="4" r:id="rId2"/>
-    <sheet name="Percepciones" sheetId="3" r:id="rId3"/>
+    <sheet name="Percepciones" sheetId="3" r:id="rId2"/>
+    <sheet name="Deducciones" sheetId="4" r:id="rId3"/>
     <sheet name="Otros Pagos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -838,9 +838,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -852,6 +849,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,28 +864,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1195,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1255,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1267,39 +1264,39 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="25" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="25" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="25" t="s">
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="26"/>
+      <c r="AA1" s="27"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1344,7 +1341,7 @@
       <c r="Y2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="22" t="s">
         <v>72</v>
       </c>
       <c r="AC2" t="s">
@@ -1353,7 +1350,7 @@
       <c r="AD2">
         <v>4</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1373,153 +1370,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:W3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
@@ -1559,43 +1428,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="31"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="31"/>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="31"/>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="29" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="31"/>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="29"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1667,6 +1536,9 @@
       <c r="W3" s="4" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1683,12 +1555,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
